--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/109.anotacoes_e_comentarios/85+-+Anotações+e+Comentários.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/109.anotacoes_e_comentarios/85+-+Anotações+e+Comentários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\109.anotacoes_e_comentarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71E87D-BA1B-41E1-8013-0D0A0FB383EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28A172-E74A-4B4C-B4E9-DF443CC279B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 01" sheetId="24" r:id="rId1"/>
@@ -40,6 +40,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alan Joffre</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{8037BAA4-872E-4BDA-BD4E-F5A99E1776AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Atenção:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Digitar dias entre 5 à 25
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{872430CD-74C6-4403-8121-87BD3652E5BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Formas Válidas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dinheiro ou Pix
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{F04F91E0-9E64-4D5B-92DD-DCFB26CDF319}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bancos Aceitos:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco do Brasil ou Caixa.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EB7DF3A2-B13D-4B03-B8C5-E23CA81BF78C}</author>
+    <author>tc={7CA077C9-5353-4363-A979-886BB60803AA}</author>
+    <author>tc={82381F9E-1D15-4DD9-8382-D6873CDF3E29}</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{EB7DF3A2-B13D-4B03-B8C5-E23CA81BF78C}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Dia:
+Digitar um dia entre 5 á 25</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{7CA077C9-5353-4363-A979-886BB60803AA}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Formas de Pagto: Dinheiro, Pix</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{82381F9E-1D15-4DD9-8382-D6873CDF3E29}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Banco: Banco do Brasil ou Caixa</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
@@ -171,7 +303,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +375,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -344,14 +495,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -379,10 +530,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alan Joffre" id="{64EBDE28-0C86-46D4-9EBF-8D99ED73F805}" userId="04d6c33968f7ef30" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -526,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -668,18 +825,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B6" dT="2025-05-02T18:42:53.22" personId="{64EBDE28-0C86-46D4-9EBF-8D99ED73F805}" id="{EB7DF3A2-B13D-4B03-B8C5-E23CA81BF78C}">
+    <text>Dia:
+Digitar um dia entre 5 á 25</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2025-05-03T16:17:26.87" personId="{64EBDE28-0C86-46D4-9EBF-8D99ED73F805}" id="{7CA077C9-5353-4363-A979-886BB60803AA}">
+    <text>Formas de Pagto: Dinheiro, Pix</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2025-05-03T16:17:50.67" personId="{64EBDE28-0C86-46D4-9EBF-8D99ED73F805}" id="{82381F9E-1D15-4DD9-8382-D6873CDF3E29}">
+    <text>Banco: Banco do Brasil ou Caixa</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899747DD-F910-4726-A4E6-BD4C9A6B746C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899747DD-F910-4726-A4E6-BD4C9A6B746C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,130 +887,130 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -859,15 +1031,16 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E666EF45-7E24-4BE6-9527-B04255558001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E666EF45-7E24-4BE6-9527-B04255558001}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,130 +1076,130 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -1046,6 +1219,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1065,12 +1239,12 @@
     <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
